--- a/REGULAR/CHARACTER/PAITON, MARY ANN.xlsx
+++ b/REGULAR/CHARACTER/PAITON, MARY ANN.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CHARACTER\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417B1243-FD9E-44A0-B79A-CB03B325382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="274">
   <si>
     <t>PERIOD</t>
   </si>
@@ -838,19 +836,40 @@
   </si>
   <si>
     <t>8/10/11/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/19,20,21,27,28</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/29,30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,6 +1249,24 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1266,24 +1303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,7 +1331,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1329,7 +1348,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1344,7 +1363,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1386,7 +1405,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1446,7 +1465,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1459,7 +1478,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1474,7 +1493,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1492,7 +1511,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1509,7 +1528,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1528,7 +1547,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1545,7 +1564,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1561,7 +1580,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1578,7 +1597,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1597,7 +1616,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1614,7 +1633,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1630,7 +1649,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1687,7 +1706,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1732,7 +1751,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1794,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1858,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1899,7 +1918,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1984,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2028,7 +2047,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2126,7 +2145,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2204,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2269,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2312,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2387,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2573,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2639,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2697,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2763,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2800,7 +2819,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2875,7 +2894,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2937,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2984,7 +3003,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3059,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3157,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3220,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3250,7 +3269,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3267,25 +3286,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K510" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K519" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3297,13 +3316,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3312,14 +3331,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3616,14 +3635,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3633,7 +3652,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3641,19 +3660,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K510"/>
+  <dimension ref="A2:K519"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A497" activePane="bottomLeft"/>
+      <pane ySplit="1884" topLeftCell="A500" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C508" sqref="C508"/>
+      <selection pane="bottomLeft" activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3668,64 +3687,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3733,7 +3752,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3746,24 +3765,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3798,7 +3817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3806,8 +3825,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>161.36500000000001</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>162.61500000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3816,14 +3835,14 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>203.5</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>204.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3844,7 +3863,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36220</v>
       </c>
@@ -3864,7 +3883,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>36251</v>
@@ -3885,7 +3904,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A18" si="0">EDATE(A12,1)</f>
         <v>36281</v>
@@ -3906,7 +3925,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>36312</v>
@@ -3927,7 +3946,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>36342</v>
@@ -3948,7 +3967,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>36373</v>
@@ -3969,7 +3988,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>36404</v>
@@ -3990,7 +4009,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <f t="shared" si="0"/>
         <v>36434</v>
@@ -4011,7 +4030,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A18,1)</f>
         <v>36465</v>
@@ -4034,7 +4053,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13">
@@ -4052,7 +4071,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f>EDATE(A19,1)</f>
         <v>36495</v>
@@ -4077,7 +4096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -4095,11 +4114,11 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="60">
+      <c r="K22" s="48">
         <v>36172</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -4121,7 +4140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13">
@@ -4139,8 +4158,8 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="59" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="20"/>
@@ -4157,7 +4176,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -4177,7 +4196,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f>EDATE(A26,1)</f>
         <v>36557</v>
@@ -4198,7 +4217,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" ref="A28:A39" si="1">EDATE(A27,1)</f>
         <v>36586</v>
@@ -4223,7 +4242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>44</v>
@@ -4243,7 +4262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -4261,7 +4280,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f>EDATE(A28,1)</f>
         <v>36617</v>
@@ -4284,7 +4303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -4302,7 +4321,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A31,1)</f>
         <v>36647</v>
@@ -4323,7 +4342,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>36678</v>
@@ -4344,7 +4363,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>36708</v>
@@ -4365,7 +4384,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>36739</v>
@@ -4386,7 +4405,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>36770</v>
@@ -4407,7 +4426,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>36800</v>
@@ -4428,7 +4447,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>36831</v>
@@ -4453,7 +4472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>44</v>
@@ -4473,7 +4492,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4491,7 +4510,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36861</v>
@@ -4516,7 +4535,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13">
@@ -4534,8 +4553,8 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="59" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="20"/>
@@ -4552,7 +4571,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36892</v>
       </c>
@@ -4572,7 +4591,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A45,1)</f>
         <v>36923</v>
@@ -4593,7 +4612,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" ref="A47:A58" si="2">EDATE(A46,1)</f>
         <v>36951</v>
@@ -4618,7 +4637,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4636,7 +4655,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36982</v>
@@ -4657,7 +4676,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>37012</v>
@@ -4678,7 +4697,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>37043</v>
@@ -4699,7 +4718,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>37073</v>
@@ -4720,7 +4739,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>37104</v>
@@ -4741,7 +4760,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>37135</v>
@@ -4766,7 +4785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>44</v>
@@ -4786,7 +4805,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4804,7 +4823,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A54,1)</f>
         <v>37165</v>
@@ -4825,7 +4844,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>37196</v>
@@ -4850,7 +4869,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>46</v>
@@ -4872,7 +4891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4890,7 +4909,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f>EDATE(A58,1)</f>
         <v>37226</v>
@@ -4911,8 +4930,8 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="59" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="20"/>
@@ -4929,7 +4948,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>37257</v>
       </c>
@@ -4949,7 +4968,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A63,1)</f>
         <v>37288</v>
@@ -4970,7 +4989,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" ref="A65:A75" si="3">EDATE(A64,1)</f>
         <v>37316</v>
@@ -4995,7 +5014,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -5013,7 +5032,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>37347</v>
@@ -5034,7 +5053,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>37377</v>
@@ -5057,7 +5076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -5075,7 +5094,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A68,1)</f>
         <v>37408</v>
@@ -5096,7 +5115,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>37438</v>
@@ -5121,7 +5140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -5139,7 +5158,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A71,1)</f>
         <v>37469</v>
@@ -5160,7 +5179,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>37500</v>
@@ -5181,7 +5200,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>37530</v>
@@ -5202,11 +5221,11 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="60">
+      <c r="K75" s="48">
         <v>37325</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>44</v>
@@ -5222,11 +5241,11 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="60" t="s">
+      <c r="K76" s="48" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -5244,7 +5263,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>37561</v>
@@ -5269,7 +5288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>58</v>
@@ -5291,7 +5310,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -5309,7 +5328,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A78,1)</f>
         <v>37591</v>
@@ -5330,8 +5349,8 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="59" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B82" s="20"/>
@@ -5348,7 +5367,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37622</v>
       </c>
@@ -5372,7 +5391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>44</v>
@@ -5392,7 +5411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>55</v>
@@ -5414,7 +5433,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>48</v>
@@ -5436,7 +5455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5454,7 +5473,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A83,1)</f>
         <v>37653</v>
@@ -5475,7 +5494,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f t="shared" ref="A89:A106" si="4">EDATE(A88,1)</f>
         <v>37681</v>
@@ -5500,7 +5519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5522,7 +5541,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5540,7 +5559,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f>EDATE(A89,1)</f>
         <v>37712</v>
@@ -5565,7 +5584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>44</v>
@@ -5585,7 +5604,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5603,7 +5622,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A92,1)</f>
         <v>37742</v>
@@ -5628,7 +5647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5646,7 +5665,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>37773</v>
@@ -5671,7 +5690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>48</v>
@@ -5693,7 +5712,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5711,7 +5730,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f>EDATE(A97,1)</f>
         <v>37803</v>
@@ -5736,7 +5755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5754,7 +5773,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A100,1)</f>
         <v>37834</v>
@@ -5777,7 +5796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37865</v>
@@ -5798,7 +5817,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="4"/>
         <v>37895</v>
@@ -5819,7 +5838,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="4"/>
         <v>37926</v>
@@ -5840,7 +5859,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="4"/>
         <v>37956</v>
@@ -5861,11 +5880,11 @@
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="60">
+      <c r="K106" s="48">
         <v>37633</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>48</v>
@@ -5887,7 +5906,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5905,8 +5924,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="59" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="20"/>
@@ -5923,7 +5942,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37987</v>
       </c>
@@ -5945,7 +5964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>48</v>
@@ -5967,7 +5986,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5985,7 +6004,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f>EDATE(A110,1)</f>
         <v>38018</v>
@@ -6006,7 +6025,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" ref="A114:A122" si="5">EDATE(A113,1)</f>
         <v>38047</v>
@@ -6031,7 +6050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -6049,7 +6068,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A114,1)</f>
         <v>38078</v>
@@ -6070,7 +6089,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="5"/>
         <v>38108</v>
@@ -6091,11 +6110,11 @@
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="60">
+      <c r="K117" s="48">
         <v>37992</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -6113,7 +6132,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>38139</v>
@@ -6134,7 +6153,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="5"/>
         <v>38169</v>
@@ -6155,7 +6174,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="5"/>
         <v>38200</v>
@@ -6176,7 +6195,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="5"/>
         <v>38231</v>
@@ -6201,7 +6220,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -6219,7 +6238,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f>EDATE(A122,1)</f>
         <v>38261</v>
@@ -6242,7 +6261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -6260,7 +6279,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38292</v>
@@ -6281,7 +6300,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f>EDATE(A126,1)</f>
         <v>38322</v>
@@ -6304,7 +6323,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -6322,8 +6341,8 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="59" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="47" t="s">
         <v>98</v>
       </c>
       <c r="B129" s="20"/>
@@ -6340,7 +6359,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38353</v>
       </c>
@@ -6360,7 +6379,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f>EDATE(A130,1)</f>
         <v>38384</v>
@@ -6383,7 +6402,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>48</v>
@@ -6405,7 +6424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6423,7 +6442,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f>EDATE(A131,1)</f>
         <v>38412</v>
@@ -6444,11 +6463,11 @@
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="60">
+      <c r="K134" s="48">
         <v>38386</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6466,7 +6485,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>38443</v>
@@ -6487,7 +6506,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" ref="A137:A142" si="6">EDATE(A136,1)</f>
         <v>38473</v>
@@ -6508,7 +6527,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="6"/>
         <v>38504</v>
@@ -6533,7 +6552,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6551,7 +6570,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A138,1)</f>
         <v>38534</v>
@@ -6572,7 +6591,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <f t="shared" si="6"/>
         <v>38565</v>
@@ -6593,7 +6612,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f t="shared" si="6"/>
         <v>38596</v>
@@ -6618,7 +6637,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>103</v>
@@ -6640,7 +6659,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>44</v>
@@ -6660,7 +6679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6678,7 +6697,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A142,1)</f>
         <v>38626</v>
@@ -6699,7 +6718,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f>EDATE(A146,1)</f>
         <v>38657</v>
@@ -6724,7 +6743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>106</v>
@@ -6746,7 +6765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6764,7 +6783,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f>EDATE(A147,1)</f>
         <v>38687</v>
@@ -6783,11 +6802,11 @@
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="60">
+      <c r="K150" s="48">
         <v>38596</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6805,8 +6824,8 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="59" t="s">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="47" t="s">
         <v>109</v>
       </c>
       <c r="B152" s="20"/>
@@ -6823,7 +6842,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38718</v>
       </c>
@@ -6843,7 +6862,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>38749</v>
@@ -6864,7 +6883,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f t="shared" ref="A155:A167" si="7">EDATE(A154,1)</f>
         <v>38777</v>
@@ -6889,7 +6908,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>48</v>
@@ -6907,11 +6926,11 @@
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="60">
+      <c r="K156" s="48">
         <v>38781</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -6929,7 +6948,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f>EDATE(A155,1)</f>
         <v>38808</v>
@@ -6950,7 +6969,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -6971,7 +6990,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f t="shared" si="7"/>
         <v>38869</v>
@@ -6992,7 +7011,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -7013,7 +7032,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -7036,7 +7055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>85</v>
@@ -7058,7 +7077,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -7076,7 +7095,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>38961</v>
@@ -7097,7 +7116,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -7118,7 +7137,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="7"/>
         <v>39022</v>
@@ -7143,7 +7162,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>115</v>
@@ -7163,7 +7182,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -7181,7 +7200,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A167,1)</f>
         <v>39052</v>
@@ -7202,8 +7221,8 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="59" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B171" s="20"/>
@@ -7220,7 +7239,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>39083</v>
       </c>
@@ -7238,11 +7257,11 @@
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="60">
+      <c r="K172" s="48">
         <v>39326</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -7260,7 +7279,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A172,1)</f>
         <v>39114</v>
@@ -7283,7 +7302,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -7301,7 +7320,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>39142</v>
@@ -7326,7 +7345,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -7344,7 +7363,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>39173</v>
@@ -7369,7 +7388,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A184" si="8">EDATE(A178,1)</f>
         <v>39203</v>
@@ -7396,7 +7415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="8"/>
         <v>39234</v>
@@ -7417,7 +7436,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -7438,7 +7457,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -7463,7 +7482,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="8"/>
         <v>39326</v>
@@ -7488,7 +7507,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -7509,7 +7528,7 @@
       <c r="J184" s="12"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>44</v>
@@ -7529,7 +7548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>39387</v>
@@ -7556,7 +7575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>44</v>
@@ -7576,7 +7595,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>39417</v>
@@ -7597,8 +7616,8 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
-      <c r="A189" s="59" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B189" s="20"/>
@@ -7615,7 +7634,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39448</v>
       </c>
@@ -7639,7 +7658,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f>EDATE(A190,1)</f>
         <v>39479</v>
@@ -7664,7 +7683,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" ref="A192:A202" si="9">EDATE(A191,1)</f>
         <v>39508</v>
@@ -7678,18 +7697,18 @@
       <c r="D192" s="42">
         <v>2.75</v>
       </c>
-      <c r="E192" s="61"/>
+      <c r="E192" s="49"/>
       <c r="F192" s="15"/>
       <c r="G192" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H192" s="42"/>
-      <c r="I192" s="61"/>
+      <c r="I192" s="49"/>
       <c r="J192" s="12"/>
       <c r="K192" s="15"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>39539</v>
@@ -7714,7 +7733,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="9"/>
         <v>39569</v>
@@ -7739,7 +7758,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="9"/>
         <v>39600</v>
@@ -7764,7 +7783,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>39630</v>
@@ -7789,7 +7808,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <f t="shared" si="9"/>
         <v>39661</v>
@@ -7814,7 +7833,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f t="shared" si="9"/>
         <v>39692</v>
@@ -7837,7 +7856,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>44</v>
@@ -7857,7 +7876,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7875,7 +7894,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A198,1)</f>
         <v>39722</v>
@@ -7900,7 +7919,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <f t="shared" si="9"/>
         <v>39753</v>
@@ -7923,7 +7942,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>139</v>
@@ -7945,7 +7964,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>141</v>
@@ -7967,7 +7986,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <f>EDATE(A202,1)</f>
         <v>39783</v>
@@ -7992,8 +8011,8 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
-      <c r="A206" s="59" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="47" t="s">
         <v>143</v>
       </c>
       <c r="B206" s="20"/>
@@ -8010,7 +8029,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39814</v>
       </c>
@@ -8028,11 +8047,11 @@
       <c r="H207" s="39"/>
       <c r="I207" s="9"/>
       <c r="J207" s="11"/>
-      <c r="K207" s="60">
+      <c r="K207" s="48">
         <v>40057</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -8050,7 +8069,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A207,1)</f>
         <v>39845</v>
@@ -8071,7 +8090,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" ref="A210:A221" si="10">EDATE(A209,1)</f>
         <v>39873</v>
@@ -8094,7 +8113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -8112,7 +8131,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39904</v>
@@ -8133,7 +8152,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="10"/>
         <v>39934</v>
@@ -8154,7 +8173,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>39965</v>
@@ -8175,7 +8194,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>39995</v>
@@ -8196,7 +8215,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="10"/>
         <v>40026</v>
@@ -8217,7 +8236,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f t="shared" si="10"/>
         <v>40057</v>
@@ -8238,7 +8257,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f t="shared" si="10"/>
         <v>40087</v>
@@ -8259,11 +8278,11 @@
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="60">
+      <c r="K218" s="48">
         <v>39944</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -8281,7 +8300,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A218,1)</f>
         <v>40118</v>
@@ -8291,18 +8310,18 @@
         <v>1.25</v>
       </c>
       <c r="D220" s="42"/>
-      <c r="E220" s="61"/>
+      <c r="E220" s="49"/>
       <c r="F220" s="15"/>
       <c r="G220" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H220" s="42"/>
-      <c r="I220" s="61"/>
+      <c r="I220" s="49"/>
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="10"/>
         <v>40148</v>
@@ -8327,7 +8346,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>49</v>
@@ -8349,7 +8368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -8367,8 +8386,8 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
-      <c r="A224" s="59" t="s">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="47" t="s">
         <v>148</v>
       </c>
       <c r="B224" s="20"/>
@@ -8385,7 +8404,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>40179</v>
       </c>
@@ -8405,7 +8424,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A225,1)</f>
         <v>40210</v>
@@ -8428,7 +8447,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8446,7 +8465,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>40238</v>
@@ -8467,7 +8486,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <f t="shared" ref="A229:A233" si="11">EDATE(A228,1)</f>
         <v>40269</v>
@@ -8488,7 +8507,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f t="shared" si="11"/>
         <v>40299</v>
@@ -8513,7 +8532,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="11"/>
         <v>40330</v>
@@ -8538,7 +8557,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="11"/>
         <v>40360</v>
@@ -8563,7 +8582,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <f t="shared" si="11"/>
         <v>40391</v>
@@ -8588,7 +8607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8606,7 +8625,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f>EDATE(A233,1)</f>
         <v>40422</v>
@@ -8631,7 +8650,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>122</v>
@@ -8653,7 +8672,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>40452</v>
@@ -8672,11 +8691,11 @@
       <c r="H237" s="39"/>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="60">
+      <c r="K237" s="48">
         <v>40401</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -8694,7 +8713,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>40483</v>
@@ -8719,7 +8738,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8737,7 +8756,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f>EDATE(A239,1)</f>
         <v>40513</v>
@@ -8758,8 +8777,8 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="59" t="s">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="47" t="s">
         <v>156</v>
       </c>
       <c r="B242" s="20"/>
@@ -8776,7 +8795,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40544</v>
       </c>
@@ -8794,11 +8813,11 @@
       <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="60">
+      <c r="K243" s="48">
         <v>40848</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8816,7 +8835,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>40575</v>
@@ -8837,7 +8856,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" ref="A246:A255" si="12">EDATE(A245,1)</f>
         <v>40603</v>
@@ -8858,7 +8877,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f t="shared" si="12"/>
         <v>40634</v>
@@ -8879,7 +8898,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <f t="shared" si="12"/>
         <v>40664</v>
@@ -8900,11 +8919,11 @@
       </c>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="60">
+      <c r="K248" s="48">
         <v>40607</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>48</v>
@@ -8926,7 +8945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8944,7 +8963,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A248,1)</f>
         <v>40695</v>
@@ -8965,7 +8984,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="12"/>
         <v>40725</v>
@@ -8986,7 +9005,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="12"/>
         <v>40756</v>
@@ -9007,7 +9026,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="12"/>
         <v>40787</v>
@@ -9028,7 +9047,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="12"/>
         <v>40817</v>
@@ -9047,11 +9066,11 @@
       <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="60">
+      <c r="K255" s="48">
         <v>40644</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>152</v>
@@ -9073,7 +9092,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f>EDATE(A255,1)</f>
         <v>40848</v>
@@ -9085,20 +9104,20 @@
       <c r="D257" s="42">
         <v>5</v>
       </c>
-      <c r="E257" s="61"/>
+      <c r="E257" s="49"/>
       <c r="F257" s="15"/>
       <c r="G257" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H257" s="42"/>
-      <c r="I257" s="61"/>
+      <c r="I257" s="49"/>
       <c r="J257" s="12"/>
       <c r="K257" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>44</v>
@@ -9118,7 +9137,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9136,7 +9155,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f>EDATE(A257,1)</f>
         <v>40878</v>
@@ -9146,19 +9165,19 @@
       </c>
       <c r="C260" s="13"/>
       <c r="D260" s="42"/>
-      <c r="E260" s="61"/>
+      <c r="E260" s="49"/>
       <c r="F260" s="15"/>
       <c r="G260" s="41"/>
       <c r="H260" s="42">
         <v>1</v>
       </c>
-      <c r="I260" s="61"/>
+      <c r="I260" s="49"/>
       <c r="J260" s="12"/>
       <c r="K260" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>161</v>
@@ -9180,8 +9199,8 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="59" t="s">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="47" t="s">
         <v>162</v>
       </c>
       <c r="B262" s="20"/>
@@ -9198,7 +9217,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40909</v>
       </c>
@@ -9216,11 +9235,11 @@
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
-      <c r="K263" s="60">
+      <c r="K263" s="48">
         <v>41153</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>48</v>
@@ -9242,7 +9261,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -9260,7 +9279,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f>EDATE(A263,1)</f>
         <v>40940</v>
@@ -9281,11 +9300,11 @@
       </c>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
-      <c r="K266" s="60">
+      <c r="K266" s="48">
         <v>40941</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13">
@@ -9301,9 +9320,9 @@
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="60"/>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="K267" s="48"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A266,1)</f>
         <v>40969</v>
@@ -9328,7 +9347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>44</v>
@@ -9348,7 +9367,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -9366,7 +9385,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <f>EDATE(A268,1)</f>
         <v>41000</v>
@@ -9391,7 +9410,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f t="shared" ref="A272:A278" si="13">EDATE(A271,1)</f>
         <v>41030</v>
@@ -9412,11 +9431,11 @@
       </c>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="60">
+      <c r="K272" s="48">
         <v>41095</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -9434,7 +9453,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41061</v>
@@ -9459,7 +9478,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="13"/>
         <v>41091</v>
@@ -9484,7 +9503,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -9502,7 +9521,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>41122</v>
@@ -9523,7 +9542,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f t="shared" si="13"/>
         <v>41153</v>
@@ -9544,11 +9563,11 @@
       </c>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="60">
+      <c r="K278" s="48">
         <v>41099</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9566,7 +9585,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f>EDATE(A278,1)</f>
         <v>41183</v>
@@ -9585,11 +9604,11 @@
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
-      <c r="K280" s="60">
+      <c r="K280" s="48">
         <v>41040</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9607,7 +9626,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>41214</v>
@@ -9632,7 +9651,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13">
@@ -9650,7 +9669,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f>EDATE(A282,1)</f>
         <v>41244</v>
@@ -9671,8 +9690,8 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
-      <c r="A285" s="59" t="s">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="47" t="s">
         <v>170</v>
       </c>
       <c r="B285" s="20"/>
@@ -9689,7 +9708,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>41275</v>
       </c>
@@ -9709,11 +9728,11 @@
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
-      <c r="K286" s="60">
+      <c r="K286" s="48">
         <v>41579</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>171</v>
@@ -9733,7 +9752,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>41306</v>
@@ -9744,7 +9763,7 @@
       <c r="C288" s="13">
         <v>1.25</v>
       </c>
-      <c r="D288" s="64">
+      <c r="D288" s="52">
         <v>0.20600000000000002</v>
       </c>
       <c r="E288" s="9"/>
@@ -9758,7 +9777,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" ref="A289:A295" si="14">EDATE(A288,1)</f>
         <v>41334</v>
@@ -9783,7 +9802,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="14"/>
         <v>41365</v>
@@ -9808,7 +9827,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="14"/>
         <v>41395</v>
@@ -9829,7 +9848,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <f t="shared" si="14"/>
         <v>41426</v>
@@ -9850,7 +9869,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f t="shared" si="14"/>
         <v>41456</v>
@@ -9871,7 +9890,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" si="14"/>
         <v>41487</v>
@@ -9892,7 +9911,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" si="14"/>
         <v>41518</v>
@@ -9913,11 +9932,11 @@
       </c>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="60">
+      <c r="K295" s="48">
         <v>41403</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9935,7 +9954,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>41548</v>
@@ -9954,11 +9973,11 @@
       <c r="H297" s="39"/>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="60">
+      <c r="K297" s="48">
         <v>41405</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>48</v>
@@ -9980,7 +9999,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9998,7 +10017,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>41579</v>
@@ -10023,7 +10042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13">
@@ -10041,7 +10060,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>41609</v>
@@ -10062,8 +10081,8 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
-      <c r="A303" s="59" t="s">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="47" t="s">
         <v>176</v>
       </c>
       <c r="B303" s="20"/>
@@ -10080,7 +10099,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>41640</v>
       </c>
@@ -10098,11 +10117,11 @@
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
-      <c r="K304" s="60">
+      <c r="K304" s="48">
         <v>41913</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -10120,7 +10139,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A304,1)</f>
         <v>41671</v>
@@ -10141,7 +10160,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A319" si="15">EDATE(A306,1)</f>
         <v>41699</v>
@@ -10166,7 +10185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>48</v>
@@ -10188,7 +10207,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13">
@@ -10206,7 +10225,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>41730</v>
@@ -10231,7 +10250,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13">
@@ -10249,7 +10268,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A310,1)</f>
         <v>41760</v>
@@ -10270,7 +10289,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="15"/>
         <v>41791</v>
@@ -10291,11 +10310,11 @@
       </c>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="60">
+      <c r="K313" s="48">
         <v>41676</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13">
@@ -10313,7 +10332,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A313,1)</f>
         <v>41821</v>
@@ -10338,7 +10357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>152</v>
@@ -10360,7 +10379,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A315,1)</f>
         <v>41852</v>
@@ -10385,7 +10404,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="15"/>
         <v>41883</v>
@@ -10410,7 +10429,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <f t="shared" si="15"/>
         <v>41913</v>
@@ -10431,11 +10450,11 @@
       </c>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="60">
+      <c r="K319" s="48">
         <v>41830</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>44</v>
@@ -10455,7 +10474,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>183</v>
@@ -10477,7 +10496,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A319,1)</f>
         <v>41944</v>
@@ -10502,7 +10521,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>185</v>
@@ -10524,7 +10543,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>187</v>
@@ -10546,7 +10565,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A322,1)</f>
         <v>41974</v>
@@ -10571,8 +10590,8 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11">
-      <c r="A326" s="59" t="s">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B326" s="20"/>
@@ -10589,7 +10608,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>42005</v>
       </c>
@@ -10611,7 +10630,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13">
@@ -10629,7 +10648,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>42036</v>
@@ -10654,7 +10673,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>152</v>
@@ -10676,7 +10695,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>42064</v>
@@ -10699,7 +10718,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13">
@@ -10717,7 +10736,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A331,1)</f>
         <v>42095</v>
@@ -10727,18 +10746,18 @@
         <v>1.25</v>
       </c>
       <c r="D333" s="42"/>
-      <c r="E333" s="61"/>
+      <c r="E333" s="49"/>
       <c r="F333" s="15"/>
       <c r="G333" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H333" s="42"/>
-      <c r="I333" s="61"/>
+      <c r="I333" s="49"/>
       <c r="J333" s="12"/>
       <c r="K333" s="15"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" ref="A334:A345" si="16">EDATE(A333,1)</f>
         <v>42125</v>
@@ -10763,7 +10782,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="16"/>
         <v>42156</v>
@@ -10788,7 +10807,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <f t="shared" si="16"/>
         <v>42186</v>
@@ -10809,11 +10828,11 @@
       </c>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
-      <c r="K336" s="60">
+      <c r="K336" s="48">
         <v>42042</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>193</v>
@@ -10835,7 +10854,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A336,1)</f>
         <v>42217</v>
@@ -10856,7 +10875,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <f t="shared" si="16"/>
         <v>42248</v>
@@ -10877,11 +10896,11 @@
       </c>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
-      <c r="K339" s="60">
+      <c r="K339" s="48">
         <v>42044</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13">
@@ -10899,7 +10918,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f>EDATE(A339,1)</f>
         <v>42278</v>
@@ -10924,7 +10943,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>195</v>
@@ -10946,7 +10965,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13">
@@ -10964,7 +10983,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f>EDATE(A341,1)</f>
         <v>42309</v>
@@ -10989,7 +11008,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -11014,8 +11033,8 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
-      <c r="A346" s="59" t="s">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="47" t="s">
         <v>198</v>
       </c>
       <c r="B346" s="20"/>
@@ -11032,7 +11051,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>42370</v>
       </c>
@@ -11052,7 +11071,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f>EDATE(A347,1)</f>
         <v>42401</v>
@@ -11077,7 +11096,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13">
@@ -11095,7 +11114,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <f>EDATE(A348,1)</f>
         <v>42430</v>
@@ -11116,7 +11135,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f t="shared" ref="A351:A365" si="17">EDATE(A350,1)</f>
         <v>42461</v>
@@ -11137,11 +11156,11 @@
       </c>
       <c r="I351" s="9"/>
       <c r="J351" s="11"/>
-      <c r="K351" s="60">
+      <c r="K351" s="48">
         <v>42678</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>200</v>
@@ -11163,7 +11182,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11181,7 +11200,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>42491</v>
@@ -11206,7 +11225,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>48</v>
@@ -11224,11 +11243,11 @@
       </c>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
-      <c r="K355" s="60">
+      <c r="K355" s="48">
         <v>42375</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>44</v>
@@ -11248,7 +11267,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>48</v>
@@ -11268,7 +11287,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13">
@@ -11286,7 +11305,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A354,1)</f>
         <v>42522</v>
@@ -11307,7 +11326,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <f t="shared" si="17"/>
         <v>42552</v>
@@ -11328,7 +11347,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f t="shared" si="17"/>
         <v>42583</v>
@@ -11353,7 +11372,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13">
@@ -11371,7 +11390,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>42614</v>
@@ -11392,7 +11411,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="17"/>
         <v>42644</v>
@@ -11413,7 +11432,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="17"/>
         <v>42675</v>
@@ -11436,7 +11455,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>139</v>
@@ -11458,7 +11477,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13">
@@ -11476,7 +11495,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>42705</v>
@@ -11497,8 +11516,8 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
-      <c r="A369" s="59" t="s">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="47" t="s">
         <v>208</v>
       </c>
       <c r="B369" s="20"/>
@@ -11515,7 +11534,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42736</v>
       </c>
@@ -11535,11 +11554,11 @@
       </c>
       <c r="I370" s="9"/>
       <c r="J370" s="11"/>
-      <c r="K370" s="60">
+      <c r="K370" s="48">
         <v>42979</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>48</v>
@@ -11561,7 +11580,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13">
@@ -11579,7 +11598,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A370,1)</f>
         <v>42767</v>
@@ -11604,7 +11623,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>48</v>
@@ -11626,7 +11645,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13">
@@ -11644,7 +11663,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A373,1)</f>
         <v>42795</v>
@@ -11669,7 +11688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>48</v>
@@ -11691,7 +11710,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>44</v>
@@ -11707,11 +11726,11 @@
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
-      <c r="K378" s="60">
+      <c r="K378" s="48">
         <v>43073</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>62</v>
@@ -11729,11 +11748,11 @@
       </c>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
-      <c r="K379" s="60">
+      <c r="K379" s="48">
         <v>42829</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>44</v>
@@ -11753,7 +11772,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13">
@@ -11771,7 +11790,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f>EDATE(A376,1)</f>
         <v>42826</v>
@@ -11792,7 +11811,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" ref="A383:A390" si="18">EDATE(A382,1)</f>
         <v>42856</v>
@@ -11813,7 +11832,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="18"/>
         <v>42887</v>
@@ -11834,7 +11853,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="18"/>
         <v>42917</v>
@@ -11857,7 +11876,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13">
@@ -11875,7 +11894,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>42948</v>
@@ -11900,7 +11919,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13">
@@ -11918,7 +11937,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>42979</v>
@@ -11939,7 +11958,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="18"/>
         <v>43009</v>
@@ -11958,11 +11977,11 @@
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="62" t="s">
+      <c r="K390" s="50" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13">
@@ -11980,7 +11999,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A390,1)</f>
         <v>43040</v>
@@ -12005,7 +12024,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13">
@@ -12023,7 +12042,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <f>EDATE(A392,1)</f>
         <v>43070</v>
@@ -12044,8 +12063,8 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11">
-      <c r="A395" s="59" t="s">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395" s="47" t="s">
         <v>220</v>
       </c>
       <c r="B395" s="20"/>
@@ -12062,7 +12081,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>43101</v>
       </c>
@@ -12082,11 +12101,11 @@
       </c>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
-      <c r="K396" s="60">
+      <c r="K396" s="48">
         <v>43221</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>48</v>
@@ -12104,11 +12123,11 @@
       </c>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
-      <c r="K397" s="60">
+      <c r="K397" s="48">
         <v>43191</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>48</v>
@@ -12130,7 +12149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13">
@@ -12148,7 +12167,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A396,1)</f>
         <v>43132</v>
@@ -12169,7 +12188,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" ref="A401:A415" si="19">EDATE(A400,1)</f>
         <v>43160</v>
@@ -12194,7 +12213,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>44</v>
@@ -12214,7 +12233,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13">
@@ -12232,7 +12251,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>43191</v>
@@ -12253,7 +12272,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="19"/>
         <v>43221</v>
@@ -12274,7 +12293,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="19"/>
         <v>43252</v>
@@ -12299,7 +12318,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13">
@@ -12317,7 +12336,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f>EDATE(A406,1)</f>
         <v>43282</v>
@@ -12342,7 +12361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -12360,7 +12379,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f>EDATE(A408,1)</f>
         <v>43313</v>
@@ -12381,11 +12400,11 @@
       </c>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="60">
+      <c r="K410" s="48">
         <v>43139</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>48</v>
@@ -12407,7 +12426,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>48</v>
@@ -12429,7 +12448,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -12447,7 +12466,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <f>EDATE(A410,1)</f>
         <v>43344</v>
@@ -12468,7 +12487,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f t="shared" si="19"/>
         <v>43374</v>
@@ -12493,7 +12512,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>44</v>
@@ -12513,7 +12532,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>48</v>
@@ -12535,7 +12554,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13">
@@ -12553,7 +12572,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A415,1)</f>
         <v>43405</v>
@@ -12576,7 +12595,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -12594,7 +12613,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f>EDATE(A419,1)</f>
         <v>43435</v>
@@ -12617,7 +12636,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -12635,8 +12654,8 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11">
-      <c r="A423" s="59" t="s">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B423" s="20"/>
@@ -12653,7 +12672,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43466</v>
       </c>
@@ -12673,11 +12692,11 @@
       </c>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="60">
+      <c r="K424" s="48">
         <v>43647</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13">
@@ -12695,7 +12714,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f>EDATE(A424,1)</f>
         <v>43497</v>
@@ -12718,7 +12737,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>48</v>
@@ -12736,11 +12755,11 @@
       </c>
       <c r="I427" s="9"/>
       <c r="J427" s="11"/>
-      <c r="K427" s="60">
+      <c r="K427" s="48">
         <v>43801</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -12758,7 +12777,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <f>EDATE(A426,1)</f>
         <v>43525</v>
@@ -12781,7 +12800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>48</v>
@@ -12803,7 +12822,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20" t="s">
         <v>48</v>
@@ -12825,7 +12844,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13">
@@ -12843,7 +12862,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A429,1)</f>
         <v>43556</v>
@@ -12868,7 +12887,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>48</v>
@@ -12890,7 +12909,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>48</v>
@@ -12908,11 +12927,11 @@
       </c>
       <c r="I435" s="9"/>
       <c r="J435" s="11"/>
-      <c r="K435" s="60">
+      <c r="K435" s="48">
         <v>43713</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>62</v>
@@ -12934,7 +12953,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -12952,7 +12971,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A433,1)</f>
         <v>43586</v>
@@ -12973,7 +12992,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <f t="shared" ref="A439:A451" si="20">EDATE(A438,1)</f>
         <v>43617</v>
@@ -12998,7 +13017,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>48</v>
@@ -13020,7 +13039,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13038,7 +13057,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f>EDATE(A439,1)</f>
         <v>43647</v>
@@ -13063,7 +13082,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>48</v>
@@ -13081,11 +13100,11 @@
       </c>
       <c r="I443" s="9"/>
       <c r="J443" s="11"/>
-      <c r="K443" s="60">
+      <c r="K443" s="48">
         <v>43504</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>48</v>
@@ -13107,7 +13126,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13">
@@ -13125,7 +13144,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f>EDATE(A442,1)</f>
         <v>43678</v>
@@ -13146,7 +13165,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="20"/>
         <v>43709</v>
@@ -13171,7 +13190,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>48</v>
@@ -13193,7 +13212,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13">
@@ -13211,7 +13230,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43739</v>
@@ -13232,7 +13251,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f t="shared" si="20"/>
         <v>43770</v>
@@ -13255,7 +13274,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>139</v>
@@ -13277,7 +13296,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -13295,7 +13314,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A451,1)</f>
         <v>43800</v>
@@ -13320,7 +13339,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -13338,8 +13357,8 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11">
-      <c r="A456" s="59" t="s">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456" s="47" t="s">
         <v>249</v>
       </c>
       <c r="B456" s="20"/>
@@ -13356,7 +13375,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43831</v>
       </c>
@@ -13380,7 +13399,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20" t="s">
         <v>251</v>
@@ -13396,11 +13415,11 @@
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
-      <c r="K458" s="63" t="s">
+      <c r="K458" s="51" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>48</v>
@@ -13422,7 +13441,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13">
@@ -13440,7 +13459,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f>EDATE(A457,1)</f>
         <v>43862</v>
@@ -13461,7 +13480,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" ref="A462:A471" si="21">EDATE(A461,1)</f>
         <v>43891</v>
@@ -13482,7 +13501,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f t="shared" si="21"/>
         <v>43922</v>
@@ -13503,7 +13522,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f t="shared" si="21"/>
         <v>43952</v>
@@ -13524,7 +13543,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>43983</v>
@@ -13549,7 +13568,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13">
@@ -13567,7 +13586,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f>EDATE(A465,1)</f>
         <v>44013</v>
@@ -13588,7 +13607,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <f t="shared" si="21"/>
         <v>44044</v>
@@ -13609,7 +13628,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f t="shared" si="21"/>
         <v>44075</v>
@@ -13630,7 +13649,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="21"/>
         <v>44105</v>
@@ -13651,7 +13670,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f t="shared" si="21"/>
         <v>44136</v>
@@ -13674,7 +13693,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>48</v>
@@ -13692,11 +13711,11 @@
       </c>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="60">
+      <c r="K472" s="48">
         <v>44147</v>
       </c>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13">
@@ -13714,7 +13733,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f>EDATE(A471,1)</f>
         <v>44166</v>
@@ -13739,7 +13758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -13757,8 +13776,8 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11">
-      <c r="A476" s="59" t="s">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A476" s="47" t="s">
         <v>259</v>
       </c>
       <c r="B476" s="20"/>
@@ -13775,7 +13794,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>44197</v>
       </c>
@@ -13795,11 +13814,11 @@
       </c>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="60">
+      <c r="K477" s="48">
         <v>44501</v>
       </c>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -13817,7 +13836,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>44228</v>
@@ -13838,7 +13857,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" ref="A480:A490" si="22">EDATE(A479,1)</f>
         <v>44256</v>
@@ -13859,7 +13878,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="22"/>
         <v>44287</v>
@@ -13869,18 +13888,18 @@
         <v>1.25</v>
       </c>
       <c r="D481" s="42"/>
-      <c r="E481" s="61"/>
+      <c r="E481" s="49"/>
       <c r="F481" s="15"/>
       <c r="G481" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H481" s="42"/>
-      <c r="I481" s="61"/>
+      <c r="I481" s="49"/>
       <c r="J481" s="12"/>
       <c r="K481" s="15"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="22"/>
         <v>44317</v>
@@ -13901,7 +13920,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="22"/>
         <v>44348</v>
@@ -13922,7 +13941,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="22"/>
         <v>44378</v>
@@ -13943,7 +13962,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>44409</v>
@@ -13964,7 +13983,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>44440</v>
@@ -13985,7 +14004,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>44470</v>
@@ -14008,7 +14027,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13">
@@ -14026,7 +14045,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>44501</v>
@@ -14047,7 +14066,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f t="shared" si="22"/>
         <v>44531</v>
@@ -14072,7 +14091,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>144</v>
@@ -14092,7 +14111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13">
@@ -14110,8 +14129,8 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11">
-      <c r="A493" s="59" t="s">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493" s="47" t="s">
         <v>263</v>
       </c>
       <c r="B493" s="20"/>
@@ -14128,7 +14147,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44562</v>
       </c>
@@ -14148,7 +14167,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A494,1)</f>
         <v>44593</v>
@@ -14169,7 +14188,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A501" si="23">EDATE(A495,1)</f>
         <v>44621</v>
@@ -14194,7 +14213,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13">
@@ -14212,7 +14231,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>44652</v>
@@ -14233,11 +14252,11 @@
       </c>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="60">
+      <c r="K498" s="48">
         <v>44565</v>
       </c>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13">
@@ -14255,7 +14274,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f>EDATE(A498,1)</f>
         <v>44682</v>
@@ -14276,7 +14295,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>44713</v>
@@ -14297,11 +14316,11 @@
       </c>
       <c r="I501" s="9"/>
       <c r="J501" s="11"/>
-      <c r="K501" s="60">
+      <c r="K501" s="48">
         <v>44718</v>
       </c>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -14319,7 +14338,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A501,1)</f>
         <v>44743</v>
@@ -14340,11 +14359,11 @@
       </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="60">
+      <c r="K503" s="48">
         <v>44657</v>
       </c>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -14362,7 +14381,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A503,1)</f>
         <v>44774</v>
@@ -14387,7 +14406,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>62</v>
@@ -14409,7 +14428,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -14427,25 +14446,37 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11">
-      <c r="A508" s="40"/>
-      <c r="B508" s="20"/>
-      <c r="C508" s="13"/>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A508" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B508" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39"/>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H508" s="39"/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H508" s="39">
+        <v>1</v>
+      </c>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
-      <c r="K508" s="20"/>
-    </row>
-    <row r="509" spans="1:11">
+      <c r="K508" s="48">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
-      <c r="B509" s="20"/>
+      <c r="B509" s="20" t="s">
+        <v>272</v>
+      </c>
       <c r="C509" s="13"/>
       <c r="D509" s="39"/>
       <c r="E509" s="9"/>
@@ -14454,26 +14485,226 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H509" s="39"/>
+      <c r="H509" s="39">
+        <v>2</v>
+      </c>
       <c r="I509" s="9"/>
       <c r="J509" s="11"/>
-      <c r="K509" s="20"/>
-    </row>
-    <row r="510" spans="1:11">
-      <c r="A510" s="40"/>
-      <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="K509" s="48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B510" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
-      <c r="K510" s="20"/>
+      <c r="K510" s="48">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D511" s="39"/>
+      <c r="E511" s="9"/>
+      <c r="F511" s="20"/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H511" s="39">
+        <v>1</v>
+      </c>
+      <c r="I511" s="9"/>
+      <c r="J511" s="11"/>
+      <c r="K511" s="48">
+        <v>44886</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="40"/>
+      <c r="B512" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C512" s="13"/>
+      <c r="D512" s="39"/>
+      <c r="E512" s="9"/>
+      <c r="F512" s="20"/>
+      <c r="G512" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H512" s="39">
+        <v>1</v>
+      </c>
+      <c r="I512" s="9"/>
+      <c r="J512" s="11"/>
+      <c r="K512" s="48">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="40"/>
+      <c r="B513" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C513" s="13"/>
+      <c r="D513" s="39"/>
+      <c r="E513" s="9"/>
+      <c r="F513" s="20"/>
+      <c r="G513" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H513" s="39"/>
+      <c r="I513" s="9"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="48">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D514" s="39">
+        <v>5</v>
+      </c>
+      <c r="E514" s="9"/>
+      <c r="F514" s="20"/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H514" s="39"/>
+      <c r="I514" s="9"/>
+      <c r="J514" s="11"/>
+      <c r="K514" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40"/>
+      <c r="B515" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C515" s="13"/>
+      <c r="D515" s="39"/>
+      <c r="E515" s="9"/>
+      <c r="F515" s="20"/>
+      <c r="G515" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H515" s="39"/>
+      <c r="I515" s="9"/>
+      <c r="J515" s="11"/>
+      <c r="K515" s="48">
+        <v>44902</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B516" s="20"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39"/>
+      <c r="E516" s="9"/>
+      <c r="F516" s="20"/>
+      <c r="G516" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H516" s="39"/>
+      <c r="I516" s="9"/>
+      <c r="J516" s="11"/>
+      <c r="K516" s="20"/>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B517" s="20"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D517" s="39"/>
+      <c r="E517" s="9"/>
+      <c r="F517" s="20"/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H517" s="39"/>
+      <c r="I517" s="9"/>
+      <c r="J517" s="11"/>
+      <c r="K517" s="20"/>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B518" s="20"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
+      <c r="E518" s="9"/>
+      <c r="F518" s="20"/>
+      <c r="G518" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H518" s="39"/>
+      <c r="I518" s="9"/>
+      <c r="J518" s="11"/>
+      <c r="K518" s="20"/>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B519" s="20"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="39"/>
+      <c r="E519" s="9"/>
+      <c r="F519" s="20"/>
+      <c r="G519" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H519" s="39"/>
+      <c r="I519" s="9"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14490,10 +14721,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14516,7 +14747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -14524,7 +14755,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -14538,20 +14769,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14580,7 +14811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -14606,17 +14837,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14630,14 +14861,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14664,7 +14895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14690,7 +14921,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14716,7 +14947,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14742,7 +14973,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14768,7 +14999,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14794,7 +15025,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14820,7 +15051,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14846,7 +15077,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14866,7 +15097,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14886,7 +15117,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14906,7 +15137,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14927,7 +15158,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14948,7 +15179,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14969,7 +15200,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14990,7 +15221,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15011,7 +15242,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15032,7 +15263,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15053,7 +15284,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15074,7 +15305,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15095,7 +15326,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15116,7 +15347,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15137,7 +15368,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15158,7 +15389,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15179,7 +15410,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15200,7 +15431,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15221,7 +15452,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15242,7 +15473,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15263,7 +15494,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15284,7 +15515,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15305,7 +15536,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15326,7 +15557,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15335,7 +15566,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15344,7 +15575,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15353,7 +15584,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15362,7 +15593,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15371,7 +15602,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15380,7 +15611,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15389,7 +15620,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15398,7 +15629,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15407,7 +15638,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15416,7 +15647,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15425,7 +15656,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15434,7 +15665,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15443,7 +15674,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15452,7 +15683,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15461,7 +15692,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15470,7 +15701,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15479,7 +15710,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15488,7 +15719,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15497,7 +15728,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15506,7 +15737,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15515,7 +15746,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15524,7 +15755,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15533,7 +15764,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15542,7 +15773,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15551,7 +15782,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15560,7 +15791,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15569,7 +15800,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15578,7 +15809,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15587,7 +15818,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
